--- a/RegressionTests/Unit_Test_15/expected_aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
+++ b/RegressionTests/Unit_Test_15/expected_aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
@@ -585,14 +585,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -605,6 +597,14 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
     </border>
   </borders>
   <cellStyleXfs count="20">
@@ -632,14 +632,17 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1492,7 +1495,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B3" t="s">
@@ -1509,7 +1512,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>56</v>
       </c>
       <c r="B4" t="s">
@@ -1526,7 +1529,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>59</v>
       </c>
       <c r="B5" t="s">
@@ -1543,7 +1546,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>62</v>
       </c>
       <c r="B6" t="s">
@@ -1560,7 +1563,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>65</v>
       </c>
       <c r="B7" t="s">
@@ -1577,7 +1580,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>68</v>
       </c>
       <c r="B8" t="s">
@@ -1594,7 +1597,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>71</v>
       </c>
       <c r="B9" t="s">
@@ -1611,7 +1614,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>74</v>
       </c>
       <c r="B10" t="s">
@@ -1628,7 +1631,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>77</v>
       </c>
       <c r="B11" t="s">
@@ -1645,7 +1648,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="5" t="s">
         <v>80</v>
       </c>
       <c r="B12" t="s">
@@ -1662,7 +1665,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>83</v>
       </c>
       <c r="B13" t="s">
@@ -1679,7 +1682,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>86</v>
       </c>
       <c r="B14" t="s">
@@ -1696,7 +1699,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
       <c r="B15" t="s">
@@ -1713,7 +1716,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B16" t="s">
@@ -1730,7 +1733,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
       <c r="B17" t="s">
@@ -1747,7 +1750,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>98</v>
       </c>
       <c r="B18" t="s">
@@ -1764,7 +1767,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>101</v>
       </c>
       <c r="B19" t="s">
@@ -1781,7 +1784,7 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B20" t="s">

--- a/RegressionTests/Unit_Test_15/expected_aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
+++ b/RegressionTests/Unit_Test_15/expected_aptrans_anon.SAA_Pension_Remit_-_07.20_SPPP__601013_.xlsx
@@ -15,6 +15,7 @@
     <sheet name="~Sheet1" sheetId="1" r:id="rId2"/>
     <sheet name="sheet1" sheetId="2" r:id="rId3"/>
     <sheet name="#Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="$Sheet1" sheetId="4" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="152511"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="97">
   <si>
     <t>SPPP.</t>
   </si>
@@ -179,190 +180,114 @@
     <t>EE</t>
   </si>
   <si>
-    <t>PPS number 9514493B does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Ballyfermot</t>
   </si>
   <si>
     <t>Duagh</t>
   </si>
   <si>
-    <t>PPS number 5706494M does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Durrus</t>
   </si>
   <si>
     <t>Donaghmede</t>
   </si>
   <si>
-    <t>PPS number 2005148P does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Clonakilty</t>
   </si>
   <si>
     <t>Murrintown</t>
   </si>
   <si>
-    <t>PPS number 8256689R does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Enniscrone</t>
   </si>
   <si>
     <t>Ballyconneely</t>
   </si>
   <si>
-    <t>PPS number 9364472F does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Lisselton</t>
   </si>
   <si>
     <t>Minane</t>
   </si>
   <si>
-    <t>PPS number 3351446Y does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Clontarf</t>
   </si>
   <si>
     <t>O'Callaghans</t>
   </si>
   <si>
-    <t>PPS number 8751354J does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Barna</t>
   </si>
   <si>
     <t>Cavan</t>
   </si>
   <si>
-    <t>PPS number 8428714T does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Bannow</t>
   </si>
   <si>
     <t>O'Coonagh</t>
   </si>
   <si>
-    <t>PPS number 3937317D does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Oranmore</t>
   </si>
   <si>
     <t>O'Kerrykeel</t>
   </si>
   <si>
-    <t>PPS number 4349587J does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Ballinadee</t>
   </si>
   <si>
     <t>Gorey</t>
   </si>
   <si>
-    <t>PPS number 2521180F does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Ballylooby</t>
   </si>
   <si>
     <t>Arigna</t>
   </si>
   <si>
-    <t>PPS number 8949366R does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Ballyvary</t>
   </si>
   <si>
     <t>Newtownforbes</t>
   </si>
   <si>
-    <t>PPS number 3070228T does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Tulrahan</t>
   </si>
   <si>
     <t>Cobh</t>
   </si>
   <si>
-    <t>PPS number 5824110P does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Dunkineely</t>
   </si>
   <si>
     <t>McCornamona</t>
   </si>
   <si>
-    <t>PPS number 3414657N does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Rahara</t>
   </si>
   <si>
     <t>O'Knockraha</t>
   </si>
   <si>
-    <t>PPS number 5901583E does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Killinaspick</t>
   </si>
   <si>
     <t>Ballinacurra</t>
   </si>
   <si>
-    <t>PPS number 1994303V does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Bellanagare</t>
   </si>
   <si>
     <t>O'Headford</t>
   </si>
   <si>
-    <t>PPS number 4192209D does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Bawnboy</t>
   </si>
   <si>
     <t>Holycross</t>
   </si>
   <si>
-    <t>PPS number 7599313R does not exist for Scheme ID 601013
-Member does not have open Paypoints</t>
-  </si>
-  <si>
     <t>Skehana</t>
   </si>
   <si>
@@ -381,158 +306,26 @@
     <t>7170.99</t>
   </si>
   <si>
-    <t>Payment Frequency</t>
-  </si>
-  <si>
-    <t>Invoice Number</t>
-  </si>
-  <si>
-    <t>Paypoint</t>
-  </si>
-  <si>
-    <t>Collection Method</t>
-  </si>
-  <si>
-    <t>Date Received</t>
-  </si>
-  <si>
-    <t>Override Date</t>
-  </si>
-  <si>
-    <t>Amount Received</t>
-  </si>
-  <si>
-    <t>MIRO Date</t>
-  </si>
-  <si>
-    <t>Comment</t>
-  </si>
-  <si>
-    <t>Monthly</t>
-  </si>
-  <si>
-    <t>1183236</t>
-  </si>
-  <si>
-    <t>101301</t>
-  </si>
-  <si>
-    <t>Cash</t>
-  </si>
-  <si>
-    <t>21/09/2021</t>
-  </si>
-  <si>
-    <t>3,133.00</t>
-  </si>
-  <si>
-    <t>ILIM 3404413 SPAVC</t>
-  </si>
-  <si>
-    <t>1182890</t>
-  </si>
-  <si>
-    <t>16/09/2021</t>
-  </si>
-  <si>
-    <t>97.03</t>
-  </si>
-  <si>
-    <t>01/09/2021</t>
-  </si>
-  <si>
-    <t>ILIM Sept 2021</t>
-  </si>
-  <si>
-    <t>1182149</t>
-  </si>
-  <si>
-    <t>09/09/2021</t>
-  </si>
-  <si>
-    <t>2,500.00</t>
-  </si>
-  <si>
-    <t>ILIM 0543264</t>
-  </si>
-  <si>
-    <t>83412</t>
-  </si>
-  <si>
-    <t>101300</t>
-  </si>
-  <si>
-    <t>31/10/2001</t>
-  </si>
-  <si>
-    <t>91,421.14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sp iro L. Stanley </t>
-  </si>
-  <si>
-    <t>68054</t>
-  </si>
-  <si>
-    <t>31/05/2001</t>
-  </si>
-  <si>
-    <t>30/05/2001</t>
-  </si>
-  <si>
-    <t>2,920.40</t>
-  </si>
-  <si>
-    <t>Hevey AVC SP</t>
-  </si>
-  <si>
-    <t>64858</t>
-  </si>
-  <si>
-    <t>30/03/2001</t>
-  </si>
-  <si>
-    <t>37,662.97</t>
-  </si>
-  <si>
-    <t>SPs 04/01</t>
-  </si>
-  <si>
-    <t>18361</t>
-  </si>
-  <si>
-    <t>101302</t>
-  </si>
-  <si>
-    <t>01/10/1999</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>620.70</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>18360</t>
-  </si>
-  <si>
-    <t>01/09/1999</t>
-  </si>
-  <si>
-    <t>18359</t>
-  </si>
-  <si>
-    <t>01/08/1999</t>
+    <t>1_Errors_found</t>
+  </si>
+  <si>
+    <t>Error Type</t>
+  </si>
+  <si>
+    <t>Error Description</t>
+  </si>
+  <si>
+    <t>schemeNotNull</t>
+  </si>
+  <si>
+    <t>The Scheme ID is missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -555,25 +348,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00CC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0000CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -632,21 +430,23 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1457,10 +1257,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="55"/>
+    <col min="1" max="1" width="16.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15">
+    <row r="1" spans="1:5" ht="30">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -1477,15 +1277,13 @@
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="30">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" ht="14.25">
+      <c r="A2" s="4"/>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>51</v>
-      </c>
-      <c r="C2" t="s">
-        <v>52</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -1494,15 +1292,13 @@
         <v>430.26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:5" ht="14.25">
+      <c r="A3" s="5"/>
+      <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
         <v>53</v>
-      </c>
-      <c r="B3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
@@ -1511,15 +1307,13 @@
         <v>240.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30">
-      <c r="A4" s="5" t="s">
-        <v>56</v>
-      </c>
+    <row r="4" spans="1:5" ht="14.25">
+      <c r="A4" s="5"/>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -1528,15 +1322,13 @@
         <v>196.71</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30">
-      <c r="A5" s="5" t="s">
-        <v>59</v>
-      </c>
+    <row r="5" spans="1:5" ht="14.25">
+      <c r="A5" s="5"/>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
@@ -1545,15 +1337,13 @@
         <v>459.12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30">
-      <c r="A6" s="5" t="s">
-        <v>62</v>
-      </c>
+    <row r="6" spans="1:5" ht="14.25">
+      <c r="A6" s="5"/>
       <c r="B6" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -1562,15 +1352,13 @@
         <v>1194.63</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30">
-      <c r="A7" s="5" t="s">
-        <v>65</v>
-      </c>
+    <row r="7" spans="1:5" ht="14.25">
+      <c r="A7" s="5"/>
       <c r="B7" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
         <v>10</v>
@@ -1579,15 +1367,13 @@
         <v>909.6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30">
-      <c r="A8" s="5" t="s">
-        <v>68</v>
-      </c>
+    <row r="8" spans="1:5" ht="14.25">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -1596,15 +1382,13 @@
         <v>293.43</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30">
-      <c r="A9" s="5" t="s">
-        <v>71</v>
-      </c>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" s="5"/>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C9" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D9" t="s">
         <v>12</v>
@@ -1613,15 +1397,13 @@
         <v>161.28</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="30">
-      <c r="A10" s="5" t="s">
-        <v>74</v>
-      </c>
+    <row r="10" spans="1:5" ht="14.25">
+      <c r="A10" s="5"/>
       <c r="B10" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D10" t="s">
         <v>13</v>
@@ -1630,15 +1412,13 @@
         <v>378.18</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30">
-      <c r="A11" s="5" t="s">
-        <v>77</v>
-      </c>
+    <row r="11" spans="1:5" ht="14.25">
+      <c r="A11" s="5"/>
       <c r="B11" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
@@ -1647,15 +1427,13 @@
         <v>199.32</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="30">
-      <c r="A12" s="5" t="s">
-        <v>80</v>
-      </c>
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="5"/>
       <c r="B12" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="C12" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="D12" t="s">
         <v>15</v>
@@ -1664,15 +1442,13 @@
         <v>346.89</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="30">
-      <c r="A13" s="5" t="s">
-        <v>83</v>
-      </c>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" s="5"/>
       <c r="B13" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="C13" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D13" t="s">
         <v>16</v>
@@ -1681,15 +1457,13 @@
         <v>165.39</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="30">
-      <c r="A14" s="5" t="s">
-        <v>86</v>
-      </c>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="5"/>
       <c r="B14" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C14" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="D14" t="s">
         <v>17</v>
@@ -1698,15 +1472,13 @@
         <v>196.32</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="30">
-      <c r="A15" s="5" t="s">
-        <v>89</v>
-      </c>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="5"/>
       <c r="B15" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C15" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1715,15 +1487,13 @@
         <v>182.25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="30">
-      <c r="A16" s="5" t="s">
-        <v>92</v>
-      </c>
+    <row r="16" spans="1:5" ht="14.25">
+      <c r="A16" s="5"/>
       <c r="B16" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D16" t="s">
         <v>19</v>
@@ -1732,15 +1502,13 @@
         <v>219.12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="30">
-      <c r="A17" s="5" t="s">
-        <v>95</v>
-      </c>
+    <row r="17" spans="1:5" ht="14.25">
+      <c r="A17" s="5"/>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C17" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -1749,15 +1517,13 @@
         <v>356.37</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="30">
-      <c r="A18" s="5" t="s">
-        <v>98</v>
-      </c>
+    <row r="18" spans="1:5" ht="14.25">
+      <c r="A18" s="5"/>
       <c r="B18" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C18" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="D18" t="s">
         <v>21</v>
@@ -1766,15 +1532,13 @@
         <v>200.07</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="30">
-      <c r="A19" s="5" t="s">
-        <v>101</v>
-      </c>
+    <row r="19" spans="1:5" ht="14.25">
+      <c r="A19" s="5"/>
       <c r="B19" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>22</v>
@@ -1783,15 +1547,13 @@
         <v>252.48</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30">
-      <c r="A20" s="5" t="s">
-        <v>104</v>
-      </c>
+    <row r="20" spans="1:5" ht="14.25">
+      <c r="A20" s="5"/>
       <c r="B20" t="s">
-        <v>105</v>
+        <v>86</v>
       </c>
       <c r="C20" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D20" t="s">
         <v>23</v>
@@ -1808,24 +1570,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1">
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.255" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="17.75"/>
-    <col min="2" max="2" width="14.125"/>
-    <col min="3" max="3" width="8.25"/>
-    <col min="4" max="4" width="15.75"/>
-    <col min="5" max="5" width="13.25"/>
-    <col min="6" max="6" width="12.625"/>
-    <col min="7" max="7" width="15.75"/>
-    <col min="8" max="8" width="10.5"/>
-    <col min="9" max="9" width="19.125"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="15">
       <c r="A1" t="s">
@@ -1839,312 +1590,61 @@
     </row>
     <row r="4" spans="1:1" ht="15">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:1" ht="15">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15">
       <c r="A9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="15">
-      <c r="A12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="15">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13" t="s">
-        <v>124</v>
-      </c>
-      <c r="G13" t="s">
-        <v>125</v>
-      </c>
-      <c r="H13" t="s">
-        <v>124</v>
-      </c>
-      <c r="I13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="15">
-      <c r="A14" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" t="s">
-        <v>127</v>
-      </c>
-      <c r="C14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>123</v>
-      </c>
-      <c r="E14" t="s">
-        <v>128</v>
-      </c>
-      <c r="F14" t="s">
-        <v>128</v>
-      </c>
-      <c r="G14" t="s">
-        <v>129</v>
-      </c>
-      <c r="H14" t="s">
-        <v>130</v>
-      </c>
-      <c r="I14" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="15">
-      <c r="A15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C15" t="s">
-        <v>122</v>
-      </c>
-      <c r="D15" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" t="s">
-        <v>133</v>
-      </c>
-      <c r="F15" t="s">
-        <v>133</v>
-      </c>
-      <c r="G15" t="s">
-        <v>134</v>
-      </c>
-      <c r="H15" t="s">
-        <v>133</v>
-      </c>
-      <c r="I15" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="15">
-      <c r="A16" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="D16" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" t="s">
-        <v>138</v>
-      </c>
-      <c r="G16" t="s">
-        <v>139</v>
-      </c>
-      <c r="H16" t="s">
-        <v>138</v>
-      </c>
-      <c r="I16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="15">
-      <c r="A17" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" t="s">
-        <v>141</v>
-      </c>
-      <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" t="s">
-        <v>123</v>
-      </c>
-      <c r="E17" t="s">
-        <v>142</v>
-      </c>
-      <c r="F17" t="s">
-        <v>143</v>
-      </c>
-      <c r="G17" t="s">
-        <v>144</v>
-      </c>
-      <c r="H17" t="s">
-        <v>142</v>
-      </c>
-      <c r="I17" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="15">
-      <c r="A18" t="s">
-        <v>120</v>
-      </c>
-      <c r="B18" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" t="s">
-        <v>137</v>
-      </c>
-      <c r="D18" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" t="s">
-        <v>147</v>
-      </c>
-      <c r="F18" t="s">
-        <v>147</v>
-      </c>
-      <c r="G18" t="s">
-        <v>148</v>
-      </c>
-      <c r="H18" t="s">
-        <v>147</v>
-      </c>
-      <c r="I18" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="15">
-      <c r="A19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B19" t="s">
-        <v>150</v>
-      </c>
-      <c r="C19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" t="s">
-        <v>123</v>
-      </c>
-      <c r="E19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F19" t="s">
-        <v>153</v>
-      </c>
-      <c r="G19" t="s">
-        <v>154</v>
-      </c>
-      <c r="H19" t="s">
-        <v>153</v>
-      </c>
-      <c r="I19" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="15">
-      <c r="A20" t="s">
-        <v>120</v>
-      </c>
-      <c r="B20" t="s">
-        <v>156</v>
-      </c>
-      <c r="C20" t="s">
-        <v>151</v>
-      </c>
-      <c r="D20" t="s">
-        <v>123</v>
-      </c>
-      <c r="E20" t="s">
-        <v>157</v>
-      </c>
-      <c r="F20" t="s">
-        <v>153</v>
-      </c>
-      <c r="G20" t="s">
-        <v>154</v>
-      </c>
-      <c r="H20" t="s">
-        <v>153</v>
-      </c>
-      <c r="I20" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="15">
-      <c r="A21" t="s">
-        <v>120</v>
-      </c>
-      <c r="B21" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D21" t="s">
-        <v>123</v>
-      </c>
-      <c r="E21" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" t="s">
-        <v>153</v>
-      </c>
-      <c r="I21" t="s">
-        <v>155</v>
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" topLeftCell="A1"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:2" ht="12.75">
+      <c r="A1" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="6"/>
+    </row>
+    <row r="2" spans="1:2" ht="12.75">
+      <c r="A2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="12.75">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
